--- a/Planning.xlsx
+++ b/Planning.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rezus\OneDrive\Escritorio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rezus\OneDrive\Escritorio\CaminoSantiago\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC65F1C9-09F8-4668-AB60-FF57A9BA58A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E12852F-A5F5-4F72-811F-FEF1F843407D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-105" windowWidth="29040" windowHeight="15720" xr2:uid="{55ECCFFB-C326-40C7-BB4C-42D479114A95}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="56">
   <si>
     <t>ORIGEN</t>
   </si>
@@ -179,36 +179,38 @@
     <t>As Cancelas</t>
   </si>
   <si>
-    <t>Falta confirmación (adelantados 17,67€, correo)</t>
-  </si>
-  <si>
     <t>No (no es necesaria reserva, espacio de sobra, correo)</t>
   </si>
   <si>
-    <t>1 minicamper</t>
-  </si>
-  <si>
-    <t>1 tienda individua</t>
-  </si>
-  <si>
-    <t>3 adultos</t>
-  </si>
-  <si>
-    <t>sin electricidad</t>
-  </si>
-  <si>
-    <t>11/07/2024 a 12/07/2024</t>
-  </si>
-  <si>
     <t>No (no es necesaria reserva, llamar algún día antes por si acaso, telefono)</t>
+  </si>
+  <si>
+    <t>https://www.teiraboabasecamp.com/</t>
+  </si>
+  <si>
+    <t>Si</t>
+  </si>
+  <si>
+    <t>Teiraboa</t>
+  </si>
+  <si>
+    <t>Sí (adelantados 17,67€, correo)</t>
+  </si>
+  <si>
+    <t>Sí (sin adelanto, correo)</t>
+  </si>
+  <si>
+    <t>Electricidad</t>
+  </si>
+  <si>
+    <t>Sí, modificado</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="6" formatCode="#,##0\ &quot;€&quot;;[Red]\-#,##0\ &quot;€&quot;"/>
+  <numFmts count="1">
     <numFmt numFmtId="8" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
@@ -242,7 +244,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -252,18 +254,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF9999"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC66"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -302,7 +292,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -312,60 +302,51 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="6" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="8" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="8" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="8" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="6" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -709,10 +690,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A5C4B54-2D1B-4BFF-AF8C-F9561FD54EA4}">
-  <dimension ref="B1:O26"/>
+  <dimension ref="B2:P16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -726,17 +707,13 @@
     <col min="9" max="9" width="7.28515625" customWidth="1"/>
     <col min="10" max="10" width="24.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" style="14" customWidth="1"/>
-    <col min="14" max="14" width="13.42578125" customWidth="1"/>
-    <col min="15" max="15" width="50" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" style="8" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" customWidth="1"/>
+    <col min="16" max="16" width="50" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-    </row>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
         <v>6</v>
       </c>
@@ -758,31 +735,34 @@
       <c r="H2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="11"/>
+      <c r="I2" s="6"/>
       <c r="J2" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="L2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="M2" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="N2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="O2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="P2" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B3" s="2">
         <v>1</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="5">
         <v>45479</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -791,41 +771,44 @@
       <c r="E3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="7">
-        <v>88.7</v>
-      </c>
-      <c r="G3" s="7">
-        <v>905</v>
-      </c>
-      <c r="H3" s="16">
-        <v>1289</v>
-      </c>
-      <c r="I3" s="12"/>
-      <c r="J3" s="16" t="str">
+      <c r="F3" s="21">
+        <v>92.7</v>
+      </c>
+      <c r="G3" s="21">
+        <v>1662</v>
+      </c>
+      <c r="H3" s="21">
+        <v>2045</v>
+      </c>
+      <c r="I3" s="7"/>
+      <c r="J3" s="15" t="str">
         <f>E3</f>
         <v>Estella</v>
       </c>
-      <c r="K3" s="18" t="s">
+      <c r="K3" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="L3" s="16" t="s">
+      <c r="L3" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="M3" s="20" t="s">
+      <c r="M3" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="N3" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="N3" s="21">
+      <c r="O3" s="10">
         <v>0</v>
       </c>
-      <c r="O3" s="16" t="s">
+      <c r="P3" s="15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B4" s="2">
         <v>2</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="5">
         <v>45480</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -834,41 +817,44 @@
       <c r="E4" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F4" s="6">
-        <v>94.3</v>
-      </c>
-      <c r="G4" s="7">
-        <v>931</v>
-      </c>
-      <c r="H4" s="16">
-        <v>853</v>
-      </c>
-      <c r="I4" s="12"/>
-      <c r="J4" s="16" t="str">
+      <c r="F4" s="21">
+        <v>100.22</v>
+      </c>
+      <c r="G4" s="21">
+        <v>1457</v>
+      </c>
+      <c r="H4" s="21">
+        <v>1388</v>
+      </c>
+      <c r="I4" s="7"/>
+      <c r="J4" s="15" t="str">
         <f t="shared" ref="J4:J11" si="0">E4</f>
         <v>Sto Domingo de la Calzada</v>
       </c>
-      <c r="K4" s="18" t="s">
+      <c r="K4" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="L4" s="16" t="s">
+      <c r="L4" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="M4" s="19" t="s">
+      <c r="M4" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="N4" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="N4" s="17">
+      <c r="O4" s="10">
         <v>48.75</v>
       </c>
-      <c r="O4" s="16" t="s">
+      <c r="P4" s="15" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B5" s="2">
         <v>3</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="5">
         <v>45481</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -877,41 +863,45 @@
       <c r="E5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="8">
-        <v>77.25</v>
-      </c>
-      <c r="G5" s="8">
-        <v>755</v>
-      </c>
-      <c r="H5" s="16">
-        <v>535</v>
-      </c>
-      <c r="I5" s="12"/>
-      <c r="J5" s="16" t="str">
+      <c r="F5" s="21">
+        <v>74.12</v>
+      </c>
+      <c r="G5" s="21">
+        <v>1012</v>
+      </c>
+      <c r="H5" s="21">
+        <v>778</v>
+      </c>
+      <c r="I5" s="7"/>
+      <c r="J5" s="15" t="str">
         <f t="shared" si="0"/>
         <v>Burgos</v>
       </c>
-      <c r="K5" s="18" t="s">
+      <c r="K5" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="L5" s="16" t="s">
+      <c r="L5" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="M5" s="19" t="s">
+      <c r="M5" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="N5" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="N5" s="21">
-        <v>45</v>
-      </c>
-      <c r="O5" s="16" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O5" s="10">
+        <f>45+7.1</f>
+        <v>52.1</v>
+      </c>
+      <c r="P5" s="15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B6" s="2">
         <v>4</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="5">
         <v>45482</v>
       </c>
       <c r="D6" s="1" t="s">
@@ -920,41 +910,44 @@
       <c r="E6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="7">
-        <v>83.64</v>
-      </c>
-      <c r="G6" s="16">
-        <v>366</v>
-      </c>
-      <c r="H6" s="16">
-        <v>404</v>
-      </c>
-      <c r="I6" s="12"/>
-      <c r="J6" s="16" t="str">
+      <c r="F6" s="21">
+        <v>91.12</v>
+      </c>
+      <c r="G6" s="21">
+        <v>728</v>
+      </c>
+      <c r="H6" s="21">
+        <v>777</v>
+      </c>
+      <c r="I6" s="7"/>
+      <c r="J6" s="15" t="str">
         <f t="shared" si="0"/>
         <v>Carrión de los Condes</v>
       </c>
-      <c r="K6" s="18" t="s">
+      <c r="K6" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="L6" s="26" t="s">
+      <c r="L6" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="M6" s="26">
+      <c r="M6" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="N6" s="15">
         <v>667317891</v>
       </c>
-      <c r="N6" s="27">
+      <c r="O6" s="16">
         <v>38</v>
       </c>
-      <c r="O6" s="16" t="s">
+      <c r="P6" s="15" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B7" s="2">
         <v>5</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="5">
         <v>45483</v>
       </c>
       <c r="D7" s="1" t="s">
@@ -963,39 +956,40 @@
       <c r="E7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="6">
-        <v>93.43</v>
-      </c>
-      <c r="G7" s="16">
-        <v>314</v>
-      </c>
-      <c r="H7" s="16">
-        <v>315</v>
-      </c>
-      <c r="I7" s="12"/>
-      <c r="J7" s="6" t="str">
+      <c r="F7" s="21">
+        <v>98.96</v>
+      </c>
+      <c r="G7" s="21">
+        <v>592</v>
+      </c>
+      <c r="H7" s="21">
+        <v>575</v>
+      </c>
+      <c r="I7" s="7"/>
+      <c r="J7" s="22" t="str">
         <f t="shared" si="0"/>
         <v>Leon</v>
       </c>
       <c r="K7" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="L7" s="6" t="s">
+      <c r="L7" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="M7" s="24" t="s">
+      <c r="M7" s="22"/>
+      <c r="N7" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="N7" s="25">
+      <c r="O7" s="14">
         <v>46.5</v>
       </c>
-      <c r="O7" s="6"/>
-    </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P7" s="22"/>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B8" s="2">
         <v>6</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="5">
         <v>45484</v>
       </c>
       <c r="D8" s="1" t="s">
@@ -1004,41 +998,44 @@
       <c r="E8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="6">
-        <v>113</v>
-      </c>
-      <c r="G8" s="6">
-        <v>943</v>
-      </c>
-      <c r="H8" s="16">
-        <v>1234</v>
-      </c>
-      <c r="I8" s="12"/>
-      <c r="J8" s="16" t="str">
+      <c r="F8" s="21">
+        <v>119.09</v>
+      </c>
+      <c r="G8" s="21">
+        <v>1252</v>
+      </c>
+      <c r="H8" s="21">
+        <v>1646</v>
+      </c>
+      <c r="I8" s="7"/>
+      <c r="J8" s="15" t="str">
         <f t="shared" si="0"/>
         <v>Ponferrada</v>
       </c>
-      <c r="K8" s="18" t="s">
+      <c r="K8" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="L8" s="26" t="s">
+      <c r="L8" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="M8" s="19" t="s">
+      <c r="M8" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="N8" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="N8" s="17">
+      <c r="O8" s="10">
         <v>26.2</v>
       </c>
-      <c r="O8" s="26" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P8" s="15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B9" s="2">
         <v>7</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="5">
         <v>45485</v>
       </c>
       <c r="D9" s="1" t="s">
@@ -1047,41 +1044,44 @@
       <c r="E9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="7">
-        <v>80.06</v>
-      </c>
-      <c r="G9" s="6">
-        <v>1310</v>
-      </c>
-      <c r="H9" s="16">
-        <v>1383</v>
-      </c>
-      <c r="I9" s="12"/>
-      <c r="J9" s="16" t="str">
+      <c r="F9" s="21">
+        <v>77.37</v>
+      </c>
+      <c r="G9" s="21">
+        <v>1506</v>
+      </c>
+      <c r="H9" s="21">
+        <v>1522</v>
+      </c>
+      <c r="I9" s="7"/>
+      <c r="J9" s="15" t="str">
         <f t="shared" si="0"/>
         <v>Sarria</v>
       </c>
-      <c r="K9" s="18" t="s">
+      <c r="K9" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="L9" s="26" t="s">
+      <c r="L9" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="M9" s="19" t="s">
+      <c r="M9" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="N9" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="N9" s="17">
+      <c r="O9" s="10">
         <v>30.5</v>
       </c>
-      <c r="O9" s="16" t="s">
+      <c r="P9" s="15" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B10" s="2">
         <v>8</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="5">
         <v>45486</v>
       </c>
       <c r="D10" s="1" t="s">
@@ -1090,31 +1090,44 @@
       <c r="E10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="8">
-        <v>71.89</v>
-      </c>
-      <c r="G10" s="7">
-        <v>930</v>
-      </c>
-      <c r="H10" s="16">
-        <v>978</v>
-      </c>
-      <c r="I10" s="12"/>
-      <c r="J10" s="6" t="str">
+      <c r="F10" s="21">
+        <v>75.67</v>
+      </c>
+      <c r="G10" s="21">
+        <v>1498</v>
+      </c>
+      <c r="H10" s="21">
+        <v>1543</v>
+      </c>
+      <c r="I10" s="7"/>
+      <c r="J10" s="15" t="str">
         <f t="shared" si="0"/>
         <v>Ribadiso</v>
       </c>
-      <c r="K10" s="22"/>
-      <c r="L10" s="22"/>
-      <c r="M10" s="23"/>
-      <c r="N10" s="22"/>
-      <c r="O10" s="6"/>
-    </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="K10" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="L10" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="M10" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="N10" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="O10" s="16">
+        <v>45</v>
+      </c>
+      <c r="P10" s="15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B11" s="2">
         <v>9</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11" s="5">
         <v>45487</v>
       </c>
       <c r="D11" s="1" t="s">
@@ -1123,116 +1136,96 @@
       <c r="E11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="16">
-        <v>37.270000000000003</v>
-      </c>
-      <c r="G11" s="16">
-        <v>295</v>
-      </c>
-      <c r="H11" s="16">
-        <v>424</v>
-      </c>
-      <c r="I11" s="12"/>
-      <c r="J11" s="16" t="str">
+      <c r="F11" s="21">
+        <v>40.97</v>
+      </c>
+      <c r="G11" s="21">
+        <v>696</v>
+      </c>
+      <c r="H11" s="21">
+        <v>818</v>
+      </c>
+      <c r="I11" s="7"/>
+      <c r="J11" s="15" t="str">
         <f t="shared" si="0"/>
         <v>Santiago</v>
       </c>
-      <c r="K11" s="18" t="s">
+      <c r="K11" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="L11" s="16" t="s">
+      <c r="L11" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="M11" s="26" t="s">
+      <c r="M11" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="N11" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="N11" s="17">
+      <c r="O11" s="10">
         <v>44.17</v>
       </c>
-      <c r="O11" s="16" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-    </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P11" s="15" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
       <c r="E13" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13" s="20">
         <f>SUM(F3:F11)</f>
-        <v>739.53999999999985</v>
-      </c>
-      <c r="G13" s="1">
+        <v>770.22</v>
+      </c>
+      <c r="G13" s="20">
         <f>SUM(G3:G11)</f>
-        <v>6749</v>
-      </c>
-      <c r="H13" s="1">
+        <v>10403</v>
+      </c>
+      <c r="H13" s="20">
         <f>SUM(H3:H11)</f>
-        <v>7415</v>
-      </c>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="M13" s="15" t="s">
+        <v>11092</v>
+      </c>
+      <c r="N13" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="N13" s="13">
-        <f>SUM(N3:N11)</f>
-        <v>279.12</v>
-      </c>
-    </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="M14" s="15" t="s">
+      <c r="O13" s="17">
+        <f>SUM(O3:O11)</f>
+        <v>331.21999999999997</v>
+      </c>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="N14" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="N14" s="13">
-        <f>N13/3</f>
-        <v>93.04</v>
-      </c>
-    </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="M16" s="15" t="s">
+      <c r="O14" s="17">
+        <f>O13/3</f>
+        <v>110.40666666666665</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="O15" s="18"/>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="N16" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="N16" s="13">
+      <c r="O16" s="17">
         <v>67.67</v>
-      </c>
-    </row>
-    <row r="22" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E22" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="23" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E23" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="24" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E24" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="25" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E25" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="26" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E26" t="s">
-        <v>52</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="M4" r:id="rId1" xr:uid="{0A01CA29-AAE5-4219-A191-522C941AC9E3}"/>
-    <hyperlink ref="M5" r:id="rId2" xr:uid="{DCE23AFC-33B4-4D7D-9993-A5BF4633841B}"/>
-    <hyperlink ref="M7" r:id="rId3" xr:uid="{98DDC875-ADEE-490D-AE66-3A5AE5C2F22F}"/>
-    <hyperlink ref="M8" r:id="rId4" xr:uid="{CC2FEAC0-D50F-48F6-9AE7-091D28C7BB90}"/>
-    <hyperlink ref="M9" r:id="rId5" xr:uid="{8F276CA0-96D6-4FA7-96B9-A7320232AEED}"/>
+    <hyperlink ref="N4" r:id="rId1" xr:uid="{0A01CA29-AAE5-4219-A191-522C941AC9E3}"/>
+    <hyperlink ref="N5" r:id="rId2" xr:uid="{DCE23AFC-33B4-4D7D-9993-A5BF4633841B}"/>
+    <hyperlink ref="N7" r:id="rId3" xr:uid="{98DDC875-ADEE-490D-AE66-3A5AE5C2F22F}"/>
+    <hyperlink ref="N8" r:id="rId4" xr:uid="{CC2FEAC0-D50F-48F6-9AE7-091D28C7BB90}"/>
+    <hyperlink ref="N9" r:id="rId5" xr:uid="{8F276CA0-96D6-4FA7-96B9-A7320232AEED}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
